--- a/va_facility_data_2025-02-20/Gallatin VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Gallatin%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Gallatin VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Gallatin%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd013d591d9c5498b9a415b8bfea66837"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1b1262e9887e4098b32506fc5b16eea0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0a463ccdd0a74db38493cef1dd09abe0"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf57765f384ef4ef6a39101fcd00860b0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcee1109789d54b71b26f26ed8d065e1f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3bee5d2962464b229c56d790f7f7ab19"/>
   </x:sheets>
 </x:workbook>
 </file>
